--- a/profile_data/mapreduce/ED_mc_map.xlsx
+++ b/profile_data/mapreduce/ED_mc_map.xlsx
@@ -5,11 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="edm" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="edc" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ED0_latency" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ED1_latency" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ED2_latency" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ED3_latency" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="ED4_latency" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -54,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -76,6 +81,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -138,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,6 +170,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -238,11 +255,11 @@
   </sheetPr>
   <dimension ref="A1:BL7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AX12" activeCellId="0" sqref="AX12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1496,7 +1513,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2742,4 +2759,1024 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>